--- a/Cohere eval/evaluation_eng_tam-cohere.xlsx
+++ b/Cohere eval/evaluation_eng_tam-cohere.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Machine translation model\Machine Translation Model\OUTPUT EVALUATION\Cohere eval\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF933C13-3623-49F2-A5E9-3AA6436A8D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -967,9 +973,6 @@
     <t>மெட்ரோவில் சீரான அறிவிப்புகள் கட்டாலன் மொழியில் மட்டுமே வருகின்றன, ஆனால் திடீர் முடக்கங்கள் சுயாதீன அமைப்பால் சிபாரிசு, ஆங்கிலம், ஃப்ரெஞ்சு, அரபு மற்றும் ஜப்பானிய மொழி உட்பட பல்வேறு மொழிகளில் அறிவிக்கப்படுகின்�.</t>
   </si>
   <si>
-    <t>ஒரு முக்கிய கிறிஸ்தவ நம்பிக்கை என்பது, செல்வாக்கு துன்பத்தையும் வறுமையையும் நீக்குவதற்காக பயன்படுத்தப்பட வேண்டும் என்பதும், அத்தகைய நோக்கத்திற்காகவே தேவாலயத்தின் நிதி நிதி இருப்பதாகும்.</t>
-  </si>
-  <si>
     <t>என்.எச்.கே தொலைக்காட்சியும் காஷிவஸகி கரிவா அணு மின் நிலையம் நியூகாட்டா மாகாணத்தில் சாதாரணமாக இயங்கி வருவதாக தெரிவித்தது.</t>
   </si>
   <si>
@@ -1162,7 +1165,7 @@
     <t>துருக்கியின் மூன்றாவது மிகப்பெரிய நகரமான இஸ்மீரின் மக்கள்தொகை சுமார் 3.7 மில்லியன் மக்கள், இஸ்தான்புல் பின்னர் இரண்டாவது மிகப்பெரிய துறைமுகம், மற்றும் ஒரு மிகச்சிறந்த போக்துறை மையம்.</t>
   </si>
   <si>
-    <t>இவாசகி தன் பயணத்தின்போது பல்வேறு சங்கடங்களை எதிர்கொண்டார்.</t>
+    <t>இவசகியின் பயணத்தின்போது, அவர் பல சந்தர்ப்பங்களில் சிக்கலில் மாட்டிக் கொண்டார்.</t>
   </si>
   <si>
     <t>இது ஆல்பைன் ஸ்டைல் ஸ்கியிங் சுற்றுலா அல்லது மலையேற்றத்துடன் தொடர்புடையது ஆனால் பொதுவாக அதிக மூட்ச்சத்துடன் மலையேற்றம் செய்யப்படும் இடங்களில் அல்ல. அதற்கு மிகவும் கடினமான ஸ்கிக்கும் பூட்களும் தேவை.</t>
@@ -1376,13 +1379,16 @@
   </si>
   <si>
     <t>நிச்சயமாக சார்க்குகள் இருக்கின்றன, ஆனால் அவை மனிதர்களை அரிதாக தாக்குகின்றன. அதிகாரிகளின் பெரும்பாலோன்றை மனிதர்களைப் பற்றி அஞ்சுகின்றனர் மற்றும் தப்பிக்க வேகமாக மூழ்குவார்கள்.</t>
+  </si>
+  <si>
+    <t>ஒரு முக்கிய கிறித்தவ நம்பிக்கை என்பது, செல்வாக்கு துன்பத்தையும் வறுமையையும் நீக்குவதற்காக பயன்படுத்தப்பட வேண்டும் என்பதும், அதற்காகவே தேவாலயத்தின் நிதி இருப்பதாகும் என்பது ஆகும்.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1445,13 +1451,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1489,7 +1503,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1523,6 +1537,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1557,9 +1572,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1732,14 +1748,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1764,10 +1782,10 @@
         <v>304</v>
       </c>
       <c r="D2">
-        <v>0.2078929003492511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.20789290034925109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1778,10 +1796,10 @@
         <v>305</v>
       </c>
       <c r="D3">
-        <v>0.2427916178410923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.24279161784109229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1792,10 +1810,10 @@
         <v>306</v>
       </c>
       <c r="D4">
-        <v>0.02315976375538632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2.3159763755386319E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1806,10 +1824,10 @@
         <v>307</v>
       </c>
       <c r="D5">
-        <v>0.08688004023091507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.688004023091507E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1820,10 +1838,10 @@
         <v>308</v>
       </c>
       <c r="D6">
-        <v>0.03715036653394373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3.7150366533943727E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1834,10 +1852,10 @@
         <v>309</v>
       </c>
       <c r="D7">
-        <v>0.02480998857358976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>2.4809988573589761E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1848,10 +1866,10 @@
         <v>310</v>
       </c>
       <c r="D8">
-        <v>0.0466274122943739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>4.66274122943739E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1862,10 +1880,10 @@
         <v>311</v>
       </c>
       <c r="D9">
-        <v>0.04883556161898536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>4.8835561618985363E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1876,10 +1894,10 @@
         <v>312</v>
       </c>
       <c r="D10">
-        <v>0.02648026191043139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2.6480261910431391E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1890,10 +1908,10 @@
         <v>313</v>
       </c>
       <c r="D11">
-        <v>0.05700459721383297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>5.7004597213832969E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1904,10 +1922,10 @@
         <v>314</v>
       </c>
       <c r="D12">
-        <v>0.02346383851293719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>2.346383851293719E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1918,10 +1936,10 @@
         <v>315</v>
       </c>
       <c r="D13">
-        <v>0.01601731227436149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1.6017312274361491E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1932,10 +1950,10 @@
         <v>316</v>
       </c>
       <c r="D14">
-        <v>0.0897614208107308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>8.9761420810730796E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1943,13 +1961,13 @@
         <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>453</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1.1401178105196599E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1957,13 +1975,13 @@
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D16">
-        <v>0.1790672737761436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.17906727377614359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1971,13 +1989,13 @@
         <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17">
-        <v>0.01327842130466265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>1.327842130466265E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1985,13 +2003,13 @@
         <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18">
-        <v>0.05146697892329587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>5.1466978923295867E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1999,13 +2017,13 @@
         <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D19">
-        <v>0.3066148710292675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.30661487102926749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2013,13 +2031,13 @@
         <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D20">
-        <v>0.03590867268505118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>3.5908672685051178E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2027,13 +2045,13 @@
         <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D21">
-        <v>0.01868121683781203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1.8681216837812029E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2041,13 +2059,13 @@
         <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D22">
-        <v>0.01392940125349468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>1.3929401253494679E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2055,13 +2073,13 @@
         <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23">
-        <v>0.06126216577463225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>6.1262165774632248E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2069,13 +2087,13 @@
         <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24">
         <v>0.1204467097774487</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2083,13 +2101,13 @@
         <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D25">
-        <v>0.01321447512236622</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>1.3214475122366219E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2097,13 +2115,13 @@
         <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D26">
-        <v>0.06477685362622818</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>6.4776853626228176E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2111,13 +2129,13 @@
         <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D27">
-        <v>0.08516138411042476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>8.5161384110424759E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2125,13 +2143,13 @@
         <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D28">
-        <v>0.07147751976894985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>7.1477519768949851E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2139,13 +2157,13 @@
         <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D29">
-        <v>0.01423834838196159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>1.423834838196159E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2153,13 +2171,13 @@
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D30">
-        <v>0.01733804040188192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>1.7338040401881919E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2167,13 +2185,13 @@
         <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D31">
-        <v>0.04065804834543842</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>4.0658048345438423E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2181,13 +2199,13 @@
         <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D32">
-        <v>0.01726269173678064</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1.726269173678064E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2195,13 +2213,13 @@
         <v>185</v>
       </c>
       <c r="C33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D33">
-        <v>0.01867970453030653</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1.867970453030653E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2209,13 +2227,13 @@
         <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D34">
-        <v>0.01776222681238415</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>1.7762226812384149E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2223,13 +2241,13 @@
         <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D35">
-        <v>0.02932097063731247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2.9320970637312468E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2237,13 +2255,13 @@
         <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D36">
-        <v>0.02874313725119598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>2.8743137251195979E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2251,13 +2269,13 @@
         <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D37">
-        <v>0.01735200065903686</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1.7352000659036859E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2265,13 +2283,13 @@
         <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D38">
-        <v>0.09744264611591712</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>9.7442646115917117E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2279,13 +2297,13 @@
         <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D39">
-        <v>0.03317390781563231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>3.3173907815632307E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2293,13 +2311,13 @@
         <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D40">
-        <v>0.04897031428613451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>4.8970314286134513E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2307,13 +2325,13 @@
         <v>193</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D41">
-        <v>0.3889951489716793</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.38899514897167931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2321,13 +2339,13 @@
         <v>194</v>
       </c>
       <c r="C42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D42">
-        <v>0.2547696540824902</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.25476965408249019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2335,13 +2353,13 @@
         <v>195</v>
       </c>
       <c r="C43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D43">
-        <v>0.02223026519744839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>2.223026519744839E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2349,13 +2367,13 @@
         <v>196</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D44">
-        <v>0.09068059995923879</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>9.0680599959238786E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2363,13 +2381,13 @@
         <v>197</v>
       </c>
       <c r="C45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D45">
-        <v>0.0200627765790881</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>2.0062776579088101E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2377,13 +2395,13 @@
         <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46">
-        <v>0.01287323590076852</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>1.2873235900768521E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2391,13 +2409,13 @@
         <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47">
-        <v>0.02040639593076734</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>2.0406395930767339E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2405,13 +2423,13 @@
         <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D48">
-        <v>0.04872594914407968</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>4.8725949144079683E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2419,13 +2437,13 @@
         <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D49">
         <v>0.157083852530959</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2433,13 +2451,13 @@
         <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D50">
-        <v>0.01552140738041915</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>1.552140738041915E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2447,13 +2465,13 @@
         <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D51">
-        <v>0.04242067357634755</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>4.2420673576347552E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2461,13 +2479,13 @@
         <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D52">
-        <v>0.02346383851293719</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>2.346383851293719E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2475,13 +2493,13 @@
         <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D53">
-        <v>0.02374137281625668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>2.374137281625668E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2489,13 +2507,13 @@
         <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D54">
-        <v>0.03401086821506398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>3.401086821506398E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2503,13 +2521,13 @@
         <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D55">
-        <v>0.01403816926180577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>1.4038169261805769E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2517,13 +2535,13 @@
         <v>208</v>
       </c>
       <c r="C56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D56">
-        <v>0.03432285169995235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>3.4322851699952348E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2531,13 +2549,13 @@
         <v>209</v>
       </c>
       <c r="C57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D57">
-        <v>0.03030492851898195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>3.030492851898195E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2545,13 +2563,13 @@
         <v>210</v>
       </c>
       <c r="C58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D58">
-        <v>0.01844228567176533</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>1.844228567176533E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2559,13 +2577,13 @@
         <v>211</v>
       </c>
       <c r="C59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D59">
-        <v>0.06207012541614563</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>6.2070125416145629E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2573,13 +2591,13 @@
         <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D60">
         <v>0.1864275686465833</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2587,13 +2605,13 @@
         <v>213</v>
       </c>
       <c r="C61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D61">
-        <v>0.01527272881393882</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>1.527272881393882E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2601,13 +2619,13 @@
         <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D62">
-        <v>0.02369935612750314</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>2.3699356127503141E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2615,13 +2633,13 @@
         <v>215</v>
       </c>
       <c r="C63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D63">
-        <v>0.04298075095376599</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>4.2980750953765988E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2629,13 +2647,13 @@
         <v>216</v>
       </c>
       <c r="C64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D64">
-        <v>0.03279352126461887</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>3.2793521264618868E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2643,13 +2661,13 @@
         <v>217</v>
       </c>
       <c r="C65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D65">
-        <v>0.02068241503026896</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>2.068241503026896E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2657,13 +2675,13 @@
         <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D66">
-        <v>0.03706635872843195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>3.7066358728431947E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2671,13 +2689,13 @@
         <v>219</v>
       </c>
       <c r="C67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D67">
-        <v>0.3655552228545123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.36555522285451231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2685,13 +2703,13 @@
         <v>220</v>
       </c>
       <c r="C68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D68">
-        <v>0.07034782669951604</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>7.0347826699516045E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2699,13 +2717,13 @@
         <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D69">
-        <v>0.06699663798496865</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>6.6996637984968646E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2713,13 +2731,13 @@
         <v>222</v>
       </c>
       <c r="C70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D70">
-        <v>0.04394075598233999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>4.3940755982339992E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2727,13 +2745,13 @@
         <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D71">
-        <v>0.01872437276446188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>1.8724372764461879E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2741,13 +2759,13 @@
         <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D72">
-        <v>0.02535658850063663</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>2.5356588500636629E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2755,13 +2773,13 @@
         <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D73">
-        <v>0.02752267264102267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>2.752267264102267E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2769,13 +2787,13 @@
         <v>226</v>
       </c>
       <c r="C74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D74">
-        <v>0.07140197125976537</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>7.1401971259765371E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2783,13 +2801,13 @@
         <v>227</v>
       </c>
       <c r="C75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D75">
-        <v>0.01180464620897736</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>1.180464620897736E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2797,13 +2815,13 @@
         <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D76">
-        <v>0.09017802119356079</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>9.0178021193560789E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2811,13 +2829,13 @@
         <v>229</v>
       </c>
       <c r="C77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D77">
-        <v>0.09415197461347365</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>9.4151974613473646E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -2825,13 +2843,13 @@
         <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D78">
-        <v>0.03727007317885059</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>3.7270073178850588E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2839,13 +2857,13 @@
         <v>231</v>
       </c>
       <c r="C79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D79">
-        <v>0.09064049409238993</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>9.0640494092389931E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2853,13 +2871,13 @@
         <v>232</v>
       </c>
       <c r="C80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>7.8825884423426515E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2867,13 +2885,13 @@
         <v>233</v>
       </c>
       <c r="C81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D81">
-        <v>0.08989651753673521</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>8.9896517536735207E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2881,13 +2899,13 @@
         <v>234</v>
       </c>
       <c r="C82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D82">
-        <v>0.05262202728382899</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>5.262202728382899E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2895,13 +2913,13 @@
         <v>235</v>
       </c>
       <c r="C83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D83">
-        <v>0.01436051032156581</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>1.436051032156581E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2909,13 +2927,13 @@
         <v>236</v>
       </c>
       <c r="C84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D84">
-        <v>0.02346383851293719</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>2.346383851293719E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2923,13 +2941,13 @@
         <v>237</v>
       </c>
       <c r="C85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D85">
-        <v>0.026380696981716</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>2.6380696981715999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2937,13 +2955,13 @@
         <v>238</v>
       </c>
       <c r="C86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D86">
-        <v>0.08874804758120645</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>8.8748047581206455E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2951,13 +2969,13 @@
         <v>239</v>
       </c>
       <c r="C87" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D87">
-        <v>0.05055235630647707</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>5.0552356306477073E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2965,13 +2983,13 @@
         <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D88">
-        <v>0.02738359412900521</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>2.738359412900521E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2979,13 +2997,13 @@
         <v>241</v>
       </c>
       <c r="C89" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D89">
-        <v>0.03876660342461716</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>3.8766603424617158E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2993,13 +3011,13 @@
         <v>242</v>
       </c>
       <c r="C90" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D90">
-        <v>0.03415317583358608</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>3.4153175833586083E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -3007,13 +3025,13 @@
         <v>243</v>
       </c>
       <c r="C91" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D91">
-        <v>0.01572402924551373</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>1.5724029245513731E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3021,13 +3039,13 @@
         <v>244</v>
       </c>
       <c r="C92" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D92">
-        <v>0.04883556161898536</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>4.8835561618985363E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3035,13 +3053,13 @@
         <v>245</v>
       </c>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D93">
-        <v>0.02226715731546123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>2.2267157315461229E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3049,13 +3067,13 @@
         <v>246</v>
       </c>
       <c r="C94" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D94">
-        <v>0.01883852621381226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>1.8838526213812261E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3063,13 +3081,13 @@
         <v>247</v>
       </c>
       <c r="C95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D95">
-        <v>0.03230007946542409</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>3.2300079465424091E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3077,13 +3095,13 @@
         <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D96">
-        <v>0.09976429857980275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>9.9764298579802749E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3091,13 +3109,13 @@
         <v>249</v>
       </c>
       <c r="C97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D97">
-        <v>0.04280703984817959</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>4.2807039848179587E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3105,13 +3123,13 @@
         <v>250</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D98">
-        <v>0.01627324553187645</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>1.6273245531876451E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -3119,13 +3137,13 @@
         <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D99">
-        <v>0.01973065769362093</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>1.973065769362093E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3133,13 +3151,13 @@
         <v>252</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D100">
-        <v>0.01909194795083855</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>1.9091947950838552E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -3147,13 +3165,13 @@
         <v>253</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D101">
-        <v>0.06858819342700943</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>6.8588193427009433E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3161,13 +3179,13 @@
         <v>254</v>
       </c>
       <c r="C102" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D102">
-        <v>0.02799946799246989</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>2.7999467992469891E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -3175,13 +3193,13 @@
         <v>255</v>
       </c>
       <c r="C103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D103">
-        <v>0.07736769212223962</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>7.7367692122239623E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3189,13 +3207,13 @@
         <v>256</v>
       </c>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D104">
-        <v>0.01930703421832902</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>1.9307034218329019E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -3203,13 +3221,13 @@
         <v>257</v>
       </c>
       <c r="C105" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D105">
-        <v>0.09342132383024378</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>9.3421323830243777E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3217,13 +3235,13 @@
         <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D106">
-        <v>0.01965713526688182</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>1.9657135266881821E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3231,13 +3249,13 @@
         <v>259</v>
       </c>
       <c r="C107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D107">
-        <v>0.04863818769664761</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>4.8638187696647607E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3245,13 +3263,13 @@
         <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D108">
-        <v>0.03614235940193449</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>3.6142359401934492E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3259,13 +3277,13 @@
         <v>261</v>
       </c>
       <c r="C109" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D109">
-        <v>0.1267371853683081</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>0.12673718536830811</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3273,13 +3291,13 @@
         <v>262</v>
       </c>
       <c r="C110" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D110">
-        <v>0.02361921836693927</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>2.3619218366939271E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3287,13 +3305,13 @@
         <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D111">
-        <v>0.1317331393528801</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>0.13173313935288011</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3301,13 +3319,13 @@
         <v>264</v>
       </c>
       <c r="C112" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D112">
-        <v>0.07383151920288623</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>7.3831519202886234E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3315,13 +3333,13 @@
         <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D113">
-        <v>0.05284133043873052</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>5.2841330438730523E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3329,13 +3347,13 @@
         <v>266</v>
       </c>
       <c r="C114" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D114">
-        <v>0.03370530328619052</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>3.3705303286190522E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3343,13 +3361,13 @@
         <v>267</v>
       </c>
       <c r="C115" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D115">
         <v>0.1395124826789029</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3357,13 +3375,13 @@
         <v>268</v>
       </c>
       <c r="C116" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D116">
-        <v>0.02159826505221162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>2.1598265052211619E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3371,13 +3389,13 @@
         <v>269</v>
       </c>
       <c r="C117" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D117">
-        <v>0.02982112663631105</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>2.9821126636311049E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3385,13 +3403,13 @@
         <v>270</v>
       </c>
       <c r="C118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D118">
-        <v>0.03547728354895942</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>3.5477283548959418E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3399,13 +3417,13 @@
         <v>271</v>
       </c>
       <c r="C119" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D119">
-        <v>0.05411054620296377</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>5.4110546202963773E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -3413,13 +3431,13 @@
         <v>272</v>
       </c>
       <c r="C120" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D120">
-        <v>0.03370530328619052</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>3.3705303286190522E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3427,13 +3445,13 @@
         <v>273</v>
       </c>
       <c r="C121" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D121">
-        <v>0.0246426604041437</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>2.4642660404143701E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3441,13 +3459,13 @@
         <v>274</v>
       </c>
       <c r="C122" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D122">
-        <v>0.0333591671307361</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>3.3359167130736098E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3455,13 +3473,13 @@
         <v>275</v>
       </c>
       <c r="C123" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D123">
-        <v>0.016747526636456</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>1.6747526636456001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3469,13 +3487,13 @@
         <v>276</v>
       </c>
       <c r="C124" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D124">
-        <v>0.01584820759127179</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>1.5848207591271792E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -3483,13 +3501,13 @@
         <v>277</v>
       </c>
       <c r="C125" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D125">
-        <v>0.02091270883715579</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>2.0912708837155791E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3497,13 +3515,13 @@
         <v>278</v>
       </c>
       <c r="C126" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D126">
-        <v>0.04709335167880109</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>4.709335167880109E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3511,13 +3529,13 @@
         <v>279</v>
       </c>
       <c r="C127" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D127">
-        <v>0.0246426604041437</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>2.4642660404143701E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3525,13 +3543,13 @@
         <v>280</v>
       </c>
       <c r="C128" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D128">
-        <v>0.03432285169995235</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>3.4322851699952348E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3539,13 +3557,13 @@
         <v>281</v>
       </c>
       <c r="C129" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D129">
-        <v>0.02738359412900521</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>2.738359412900521E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3553,13 +3571,13 @@
         <v>282</v>
       </c>
       <c r="C130" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D130">
-        <v>0.07152368348650535</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>7.1523683486505354E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3567,13 +3585,13 @@
         <v>283</v>
       </c>
       <c r="C131" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D131">
-        <v>0.01812876511484067</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>1.812876511484067E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3581,13 +3599,13 @@
         <v>284</v>
       </c>
       <c r="C132" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D132">
-        <v>0.01816121362850295</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>1.816121362850295E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3595,13 +3613,13 @@
         <v>285</v>
       </c>
       <c r="C133" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D133">
-        <v>0.04065804834543842</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>4.0658048345438423E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3609,13 +3627,13 @@
         <v>286</v>
       </c>
       <c r="C134" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D134">
-        <v>0.03431640302010999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>3.4316403020109992E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3623,13 +3641,13 @@
         <v>287</v>
       </c>
       <c r="C135" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D135">
         <v>0.2224246939793677</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3637,13 +3655,13 @@
         <v>288</v>
       </c>
       <c r="C136" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D136">
-        <v>0.02346383851293719</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>2.346383851293719E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3651,13 +3669,13 @@
         <v>289</v>
       </c>
       <c r="C137" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D137">
-        <v>0.03906947081246992</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>3.906947081246992E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3665,13 +3683,13 @@
         <v>290</v>
       </c>
       <c r="C138" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D138">
-        <v>0.05317260324556383</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>5.3172603245563832E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3679,13 +3697,13 @@
         <v>291</v>
       </c>
       <c r="C139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D139">
         <v>0.1063660076269719</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3693,13 +3711,13 @@
         <v>292</v>
       </c>
       <c r="C140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D140">
-        <v>0.03415317583358608</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>3.4153175833586083E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3707,13 +3725,13 @@
         <v>293</v>
       </c>
       <c r="C141" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D141">
-        <v>0.02648026191043139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>2.6480261910431391E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3721,13 +3739,13 @@
         <v>294</v>
       </c>
       <c r="C142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D142">
-        <v>0.06925889727272468</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>6.9258897272724676E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3735,13 +3753,13 @@
         <v>295</v>
       </c>
       <c r="C143" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D143">
-        <v>0.08778464845849705</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>8.7784648458497053E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3749,13 +3767,13 @@
         <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D144">
-        <v>0.09653633714412643</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>9.6536337144126433E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3763,13 +3781,13 @@
         <v>297</v>
       </c>
       <c r="C145" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D145">
-        <v>0.1415871854382726</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>0.14158718543827259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3777,13 +3795,13 @@
         <v>298</v>
       </c>
       <c r="C146" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D146">
-        <v>0.01920537268986165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>1.9205372689861649E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3791,13 +3809,13 @@
         <v>299</v>
       </c>
       <c r="C147" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D147">
-        <v>0.04253814160491989</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>4.2538141604919887E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3805,13 +3823,13 @@
         <v>300</v>
       </c>
       <c r="C148" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D148">
-        <v>0.03737480762784243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>3.7374807627842427E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -3819,13 +3837,13 @@
         <v>301</v>
       </c>
       <c r="C149" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D149">
-        <v>0.02122521936763937</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>2.122521936763937E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -3833,13 +3851,13 @@
         <v>302</v>
       </c>
       <c r="C150" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D150">
         <v>0.1454385087244435</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -3847,10 +3865,10 @@
         <v>303</v>
       </c>
       <c r="C151" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D151">
-        <v>0.1513851459876605</v>
+        <v>0.15138514598766051</v>
       </c>
     </row>
   </sheetData>
